--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_A_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCDDE7-FF02-48FA-A5FF-8F0A05846BEB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEC7EC-BD7A-4000-A49C-B7C1870CE44F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,19 +101,23 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,12 +135,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FF5F9BD5"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -146,12 +150,106 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,148 +258,97 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,222 +672,227 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G4" sqref="G4:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="26">
         <v>8635</v>
       </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13" t="s">
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="26">
         <v>2800</v>
       </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13" t="s">
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="20">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="20">
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="13" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="26">
         <v>700</v>
       </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="13" t="s">
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="20">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26">
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="26">
         <v>1200</v>
       </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13" t="s">
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="26">
         <v>220</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13" t="s">
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="26">
         <v>175</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13" t="s">
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="26">
         <v>50</v>
       </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15" t="s">
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="12">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="26">
         <v>13780</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="26">
         <v>13780</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B12:F12"/>
@@ -849,11 +901,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_A_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEC7EC-BD7A-4000-A49C-B7C1870CE44F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D88F9E-ED82-47F4-8EB2-7040D3471E87}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,26 +98,24 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -286,69 +284,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,24 +689,24 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -700,199 +717,194 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="26">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
         <v>8635</v>
       </c>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="16" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="26">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5">
         <v>2800</v>
       </c>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="26">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="5">
         <v>700</v>
       </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="26">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="5">
         <v>1200</v>
       </c>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="26">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="5">
         <v>220</v>
       </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="26">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="5">
         <v>175</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="26">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="5">
         <v>50</v>
       </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="26">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5">
         <v>13780</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="5">
         <v>13780</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B12:F12"/>
@@ -901,7 +913,13 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_A_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D88F9E-ED82-47F4-8EB2-7040D3471E87}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB6FD4D-1379-4F95-94C1-23E5EC4706F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -304,6 +304,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -313,6 +346,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -322,49 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,6 +375,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A86C"/>
       <color rgb="FF5F9BD5"/>
     </mruColors>
   </colors>
@@ -689,49 +690,49 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="27" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -751,13 +752,13 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="5">
         <v>2800</v>
       </c>
@@ -765,27 +766,27 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
         <v>10000</v>
@@ -793,25 +794,25 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="5">
         <v>700</v>
       </c>
@@ -819,13 +820,13 @@
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
         <v>3750</v>
@@ -833,13 +834,13 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="5">
         <v>1200</v>
       </c>
@@ -847,13 +848,13 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="5">
         <v>220</v>
       </c>
@@ -861,13 +862,13 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="5">
         <v>175</v>
       </c>
@@ -875,27 +876,27 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="5">
         <v>50</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="5">
         <v>13780</v>
       </c>
@@ -905,6 +906,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B12:F12"/>
@@ -913,11 +919,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
